--- a/data/financial_statements/soci/MOS.xlsx
+++ b/data/financial_statements/soci/MOS.xlsx
@@ -14,9 +14,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,150 +613,150 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41364</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>5349000000</v>
+        <v>5348500000</v>
       </c>
       <c r="C2">
-        <v>5373000000</v>
+        <v>5373100000</v>
       </c>
       <c r="D2">
-        <v>3922000000</v>
+        <v>3922300000</v>
       </c>
       <c r="E2">
         <v>3841000000</v>
       </c>
       <c r="F2">
-        <v>3419000000</v>
+        <v>3418600000</v>
       </c>
       <c r="G2">
         <v>2800700000</v>
@@ -748,23 +865,23 @@
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B3">
         <v>0.5645</v>
       </c>
       <c r="C3">
-        <v>0.9184</v>
+        <v>0.9185</v>
       </c>
       <c r="D3">
-        <v>0.7074</v>
+        <v>0.7075</v>
       </c>
       <c r="E3">
         <v>0.5629999999999999</v>
       </c>
       <c r="F3">
-        <v>0.4356</v>
+        <v>0.4355</v>
       </c>
       <c r="G3">
         <v>0.3697</v>
@@ -873,23 +990,23 @@
       </c>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>3847000000</v>
+        <v>3846500000</v>
       </c>
       <c r="C4">
-        <v>3527000000</v>
+        <v>3526800000</v>
       </c>
       <c r="D4">
-        <v>2483000000</v>
+        <v>2483200000</v>
       </c>
       <c r="E4">
-        <v>2674000000</v>
+        <v>2692400000</v>
       </c>
       <c r="F4">
-        <v>2554000000</v>
+        <v>2554100000</v>
       </c>
       <c r="G4">
         <v>2048400000</v>
@@ -998,23 +1115,23 @@
       </c>
     </row>
     <row r="5" spans="1:42">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1502000000</v>
       </c>
       <c r="C5">
-        <v>1846000000</v>
+        <v>1846300000</v>
       </c>
       <c r="D5">
-        <v>1439000000</v>
+        <v>1439100000</v>
       </c>
       <c r="E5">
-        <v>1167000000</v>
+        <v>1148601000</v>
       </c>
       <c r="F5">
-        <v>865000000</v>
+        <v>864500000</v>
       </c>
       <c r="G5">
         <v>752300000</v>
@@ -1123,8 +1240,8 @@
       </c>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B6">
         <v>124500000</v>
@@ -1139,7 +1256,7 @@
         <v>123500000</v>
       </c>
       <c r="F6">
-        <v>98000000</v>
+        <v>97700000</v>
       </c>
       <c r="G6">
         <v>107600000</v>
@@ -1248,8 +1365,8 @@
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1154700000</v>
@@ -1373,8 +1490,8 @@
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B8">
         <v>38000000</v>
@@ -1414,23 +1531,23 @@
       </c>
     </row>
     <row r="9" spans="1:42">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B9">
-        <v>8000000</v>
+        <v>30600000</v>
       </c>
       <c r="C9">
-        <v>9000000</v>
+        <v>34100000</v>
       </c>
       <c r="D9">
-        <v>5000000</v>
+        <v>39300000</v>
       </c>
       <c r="E9">
-        <v>8000000</v>
+        <v>39000000</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
+        <v>47800000</v>
       </c>
       <c r="G9">
         <v>37300000</v>
@@ -1530,23 +1647,23 @@
       </c>
     </row>
     <row r="10" spans="1:42">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>-286000000</v>
+        <v>-94000000</v>
       </c>
       <c r="C10">
-        <v>-327000000</v>
+        <v>-297000000</v>
       </c>
       <c r="D10">
-        <v>260000000</v>
+        <v>271600000</v>
       </c>
       <c r="E10">
-        <v>-74000000</v>
+        <v>-83800000</v>
       </c>
       <c r="F10">
-        <v>-165000000</v>
+        <v>-147300000</v>
       </c>
       <c r="G10">
         <v>75200000</v>
@@ -1655,23 +1772,23 @@
       </c>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B11">
-        <v>1061000000</v>
+        <v>1060700000</v>
       </c>
       <c r="C11">
-        <v>1377000000</v>
+        <v>1377200000</v>
       </c>
       <c r="D11">
-        <v>1527000000</v>
+        <v>1527400000</v>
       </c>
       <c r="E11">
-        <v>886000000</v>
+        <v>885900000</v>
       </c>
       <c r="F11">
-        <v>554000000</v>
+        <v>554300000</v>
       </c>
       <c r="G11">
         <v>559200000</v>
@@ -1780,23 +1897,23 @@
       </c>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>277000000</v>
+        <v>276600000</v>
       </c>
       <c r="C12">
-        <v>369000000</v>
+        <v>369300000</v>
       </c>
       <c r="D12">
-        <v>372000000</v>
+        <v>372400000</v>
       </c>
       <c r="E12">
-        <v>246000000</v>
+        <v>245500000</v>
       </c>
       <c r="F12">
-        <v>177000000</v>
+        <v>176600000</v>
       </c>
       <c r="G12">
         <v>115900000</v>
@@ -1905,8 +2022,8 @@
       </c>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B13">
         <v>784100000</v>
@@ -2030,16 +2147,16 @@
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AK14">
         <v>700000</v>
       </c>
     </row>
     <row r="15" spans="1:42">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B15">
         <v>72100000</v>
@@ -2157,8 +2274,8 @@
       </c>
     </row>
     <row r="16" spans="1:42">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -2201,8 +2318,8 @@
       </c>
     </row>
     <row r="17" spans="1:42">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B17">
         <v>14500000</v>
@@ -2326,23 +2443,23 @@
       </c>
     </row>
     <row r="18" spans="1:42">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B18">
-        <v>842000000</v>
+        <v>841700000</v>
       </c>
       <c r="C18">
-        <v>1036000000</v>
+        <v>1035900000</v>
       </c>
       <c r="D18">
         <v>1182000000</v>
       </c>
       <c r="E18">
-        <v>665000000</v>
+        <v>664799900</v>
       </c>
       <c r="F18">
-        <v>372000000</v>
+        <v>371900000</v>
       </c>
       <c r="G18">
         <v>437200000</v>
@@ -2451,23 +2568,23 @@
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B19">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="C19">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="D19">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="E19">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="F19">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G19">
         <v>1.15</v>
@@ -2573,8 +2690,8 @@
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B20">
         <v>2.42</v>
@@ -2695,23 +2812,23 @@
       </c>
     </row>
     <row r="21" spans="1:42">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B21">
-        <v>344000000</v>
+        <v>344200000</v>
       </c>
       <c r="C21">
-        <v>360000000</v>
+        <v>359500000</v>
       </c>
       <c r="D21">
-        <v>366000000</v>
+        <v>366100000</v>
       </c>
       <c r="E21">
-        <v>374000000</v>
+        <v>378100000</v>
       </c>
       <c r="F21">
-        <v>380000000</v>
+        <v>379800000</v>
       </c>
       <c r="G21">
         <v>379800000</v>
@@ -2820,23 +2937,23 @@
       </c>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>348000000</v>
+        <v>347700000</v>
       </c>
       <c r="C22">
-        <v>363000000</v>
+        <v>363100000</v>
       </c>
       <c r="D22">
-        <v>370000000</v>
+        <v>370100000</v>
       </c>
       <c r="E22">
-        <v>378000000</v>
+        <v>381600000</v>
       </c>
       <c r="F22">
-        <v>383000000</v>
+        <v>383200000</v>
       </c>
       <c r="G22">
         <v>383300000</v>
@@ -2945,8 +3062,8 @@
       </c>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0.2808</v>
@@ -2958,10 +3075,10 @@
         <v>0.3669</v>
       </c>
       <c r="E23">
-        <v>0.3038</v>
+        <v>0.299</v>
       </c>
       <c r="F23">
-        <v>0.253</v>
+        <v>0.2529</v>
       </c>
       <c r="G23">
         <v>0.2686</v>
@@ -3070,8 +3187,8 @@
       </c>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0.2159</v>
@@ -3195,23 +3312,23 @@
       </c>
     </row>
     <row r="25" spans="1:42">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B25">
-        <v>0.1984</v>
+        <v>0.1983</v>
       </c>
       <c r="C25">
         <v>0.2563</v>
       </c>
       <c r="D25">
-        <v>0.3893</v>
+        <v>0.3894</v>
       </c>
       <c r="E25">
-        <v>0.2307</v>
+        <v>0.2306</v>
       </c>
       <c r="F25">
-        <v>0.162</v>
+        <v>0.1621</v>
       </c>
       <c r="G25">
         <v>0.1997</v>
@@ -3320,8 +3437,8 @@
       </c>
     </row>
     <row r="26" spans="1:42">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0.1574</v>
@@ -3445,23 +3562,23 @@
       </c>
     </row>
     <row r="27" spans="1:42">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B27">
-        <v>1607000000</v>
+        <v>1403500000</v>
       </c>
       <c r="C27">
-        <v>1983000000</v>
+        <v>1939200000</v>
       </c>
       <c r="D27">
-        <v>1553000000</v>
+        <v>1502100000</v>
       </c>
       <c r="E27">
-        <v>1276000000</v>
+        <v>1203001000</v>
       </c>
       <c r="F27">
-        <v>971000000</v>
+        <v>905400100</v>
       </c>
       <c r="G27">
         <v>705500000</v>
@@ -3573,8 +3690,8 @@
       </c>
     </row>
     <row r="28" spans="1:42">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B28">
         <v>1154700000</v>
@@ -3698,8 +3815,8 @@
       </c>
     </row>
     <row r="29" spans="1:42">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B29">
         <v>856200000</v>
@@ -3823,23 +3940,23 @@
       </c>
     </row>
     <row r="30" spans="1:42">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B30">
-        <v>856000000</v>
+        <v>856200000</v>
       </c>
       <c r="C30">
-        <v>1044000000</v>
+        <v>1043800000</v>
       </c>
       <c r="D30">
-        <v>1186000000</v>
+        <v>1185700000</v>
       </c>
       <c r="E30">
-        <v>661000000</v>
+        <v>661400000</v>
       </c>
       <c r="F30">
-        <v>377000000</v>
+        <v>376500000</v>
       </c>
       <c r="G30">
         <v>438800000</v>
@@ -3948,8 +4065,8 @@
       </c>
     </row>
     <row r="31" spans="1:42">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B31">
         <v>2.4875</v>
@@ -4073,8 +4190,8 @@
       </c>
     </row>
     <row r="32" spans="1:42">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B32">
         <v>2.4625</v>
@@ -4198,8 +4315,8 @@
       </c>
     </row>
     <row r="33" spans="1:42">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B33">
         <v>2.4875</v>
@@ -4323,8 +4440,8 @@
       </c>
     </row>
     <row r="34" spans="1:42">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B34">
         <v>2.4625</v>
@@ -4448,8 +4565,8 @@
       </c>
     </row>
     <row r="35" spans="1:42">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B35">
         <v>347700000</v>
@@ -4570,23 +4687,23 @@
       </c>
     </row>
     <row r="36" spans="1:42">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B36">
-        <v>0.3004</v>
+        <v>0.2624</v>
       </c>
       <c r="C36">
-        <v>0.3691</v>
+        <v>0.3609</v>
       </c>
       <c r="D36">
-        <v>0.396</v>
+        <v>0.383</v>
       </c>
       <c r="E36">
-        <v>0.3322</v>
+        <v>0.3132</v>
       </c>
       <c r="F36">
-        <v>0.284</v>
+        <v>0.2648</v>
       </c>
       <c r="G36">
         <v>0.2519</v>
@@ -4698,8 +4815,8 @@
       </c>
     </row>
     <row r="37" spans="1:42">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B37">
         <v>0.1662</v>
@@ -4813,7 +4930,7 @@
         <v>-0.0236</v>
       </c>
       <c r="AM37">
-        <v>0.3751</v>
+        <v>0.202</v>
       </c>
       <c r="AO37">
         <v>0.2506</v>
